--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\docs\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FD40C-3A84-40EE-8FB0-859D91D08942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3309FD-5B8E-4767-A26E-D5EDB7E5325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="150" windowWidth="13245" windowHeight="15225" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>文字バイト</t>
     <rPh sb="0" eb="2">
@@ -190,13 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オブジェクト名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイテムID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -248,6 +241,20 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティの総文字数</t>
+    <rPh sb="6" eb="10">
+      <t>ソウモジスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクトの種類</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -631,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8AF7D9-95EC-40A6-80B7-0353C34E5587}">
-  <dimension ref="B3:K60"/>
+  <dimension ref="B3:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -681,7 +688,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -874,72 +881,71 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <f>SUM(F27:F33)*D34</f>
-        <v>54400</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="H35">
-        <f>F34</f>
-        <v>54400</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F27:F35)*D36</f>
+        <v>54800</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <f>F36</f>
+        <v>54800</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D40">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <f>D40*D4</f>
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -947,19 +953,19 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D42">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42">
         <f>D42*D4</f>
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
@@ -967,19 +973,19 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <f>D44*D8</f>
-        <v>24</v>
+        <f>D44</f>
+        <v>5</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
@@ -987,119 +993,179 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <f>D46*D8</f>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>D48</f>
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D50">
         <v>100</v>
       </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <f>SUM(F37:F45)*D46</f>
-        <v>79400</v>
-      </c>
-      <c r="G46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="H47">
-        <f>F46</f>
-        <v>79400</v>
-      </c>
-      <c r="I47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <f>SUM(F39:F49)*D50</f>
+        <v>54700</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <f>F50</f>
+        <v>54700</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D56">
+        <v>256</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f>D56*D4</f>
+        <v>2048</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f>D58</f>
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D52">
-        <v>512</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52">
-        <f>D52*D4</f>
-        <v>4096</v>
-      </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D54">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <f>SUM(F49:F53)*D54</f>
-        <v>204900</v>
-      </c>
-      <c r="G54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="H55">
-        <f>F54</f>
-        <v>204900</v>
-      </c>
-      <c r="I55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="J59">
-        <f>SUM(H14:H58)</f>
-        <v>347444</v>
-      </c>
-      <c r="K59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="J60" s="2">
-        <f>J59/D10</f>
-        <v>0.84825195312500001</v>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <f>SUM(F53:F59)*D60</f>
+        <v>205300</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H61">
+        <f>F60</f>
+        <v>205300</v>
+      </c>
+      <c r="I61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J65">
+        <f>SUM(H14:H64)</f>
+        <v>323544</v>
+      </c>
+      <c r="K65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J66" s="2">
+        <f>J65/D10</f>
+        <v>0.78990234375000001</v>
       </c>
     </row>
   </sheetData>

--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\docs\dynamodb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3309FD-5B8E-4767-A26E-D5EDB7E5325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8136A580-7F20-42C4-B1D3-221DB6E37A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>文字バイト</t>
     <rPh sb="0" eb="2">
@@ -198,6 +198,75 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>アノテーションの最大数</t>
+    <rPh sb="8" eb="11">
+      <t>サイダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DynamoDB のアイテム数</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページのID(数字最大4桁)</t>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティの総文字数</t>
+    <rPh sb="6" eb="10">
+      <t>ソウモジスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクトの種類</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーションの詳細</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーションのID(数字最大10桁)</t>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>アノテーションの内容</t>
     <rPh sb="8" eb="10">
       <t>ナイヨウ</t>
@@ -205,6 +274,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティの総文字数</t>
+    <rPh sb="6" eb="10">
+      <t>ソウモジスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パーティションキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソートキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>アノテーションの最大数</t>
     <rPh sb="8" eb="11">
       <t>サイダイスウ</t>
@@ -212,49 +300,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DynamoDB のアイテム数</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページのID(数字最大4桁)</t>
-    <rPh sb="7" eb="9">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アノテーションのID(数字最大4桁)</t>
+    <t>アノテーションのID(数字最大10桁)</t>
     <rPh sb="11" eb="13">
       <t>スウジ</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>サイダイ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロパティの総文字数</t>
-    <rPh sb="6" eb="10">
-      <t>ソウモジスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オブジェクトの種類</t>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
+    <t>チャンクの番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーションの文字列の長さ(最大2400)</t>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -638,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8AF7D9-95EC-40A6-80B7-0353C34E5587}">
-  <dimension ref="B3:K66"/>
+  <dimension ref="B3:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -688,7 +762,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -881,7 +955,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -934,7 +1008,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
@@ -973,7 +1047,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
@@ -1013,7 +1087,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
@@ -1038,14 +1112,14 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D50">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
       </c>
       <c r="F50">
         <f>SUM(F39:F49)*D50</f>
-        <v>54700</v>
+        <v>109400</v>
       </c>
       <c r="G50" t="s">
         <v>3</v>
@@ -1054,7 +1128,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H51">
         <f>F50</f>
-        <v>54700</v>
+        <v>109400</v>
       </c>
       <c r="I51" t="s">
         <v>3</v>
@@ -1067,38 +1141,39 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <f>D54</f>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D56">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56">
-        <f>D56*D4</f>
-        <v>2048</v>
+        <f>D56/2</f>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
         <v>3</v>
@@ -1106,19 +1181,19 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58">
-        <f>D58</f>
-        <v>3</v>
+        <f>D58/2</f>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
@@ -1126,46 +1201,205 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <f>D60</f>
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D62">
+        <v>10000</v>
+      </c>
+      <c r="E62" t="s">
         <v>5</v>
       </c>
-      <c r="F60">
-        <f>SUM(F53:F59)*D60</f>
-        <v>205300</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="H61">
-        <f>F60</f>
-        <v>205300</v>
-      </c>
-      <c r="I61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J65">
-        <f>SUM(H14:H64)</f>
-        <v>323544</v>
-      </c>
-      <c r="K65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J66" s="2">
-        <f>J65/D10</f>
-        <v>0.78990234375000001</v>
+      <c r="F62">
+        <f>D62/200*F54+SUM(F55:F61)*D62</f>
+        <v>90150</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H63">
+        <f>F62</f>
+        <v>90150</v>
+      </c>
+      <c r="I63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J67">
+        <f>SUM(H14:H66)</f>
+        <v>263094</v>
+      </c>
+      <c r="K67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J68" s="2">
+        <f>J67/D10</f>
+        <v>0.64231933593750001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <f>3+D73*D8</f>
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75">
+        <f>D75*D8+3+4</f>
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77">
+        <f>D77</f>
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="D81">
+        <v>240</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81">
+        <f>D81*D4</f>
+        <v>1920</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <v>200</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83">
+        <f>SUM(F78:F82)*D83</f>
+        <v>386000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="J84">
+        <f>SUM(F72:F77)+F83</f>
+        <v>386061</v>
+      </c>
+      <c r="K84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="J85" s="2">
+        <f>J84/D10</f>
+        <v>0.94253173828125003</v>
       </c>
     </row>
   </sheetData>

--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED95C4D-69D9-44A1-A902-B055C9A852CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265242A7-AA63-4FDD-A187-7EA10E22D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="楽譜のデータ(v1)" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
   <si>
     <t>ID のバイト数</t>
     <rPh sb="7" eb="8">
@@ -829,12 +829,12 @@
     <tableColumn id="3" xr3:uid="{FE06A132-179F-47D1-8843-BF87286558FB}" name="プロパティ名"/>
     <tableColumn id="4" xr3:uid="{518FA962-04C0-4130-A16E-409240DD9A7E}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{54CD469D-6D7F-4844-92F4-4B58B1B7F583}" name="日本語あり"/>
-    <tableColumn id="5" xr3:uid="{0617EF1E-4A7D-4E10-B262-AD408EBC0600}" name="数値型最大桁数" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{0617EF1E-4A7D-4E10-B262-AD408EBC0600}" name="数値型最大桁数" dataDxfId="14">
       <calculatedColumnFormula>TIME_LINGTH</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{916681C1-E818-4539-9777-FC0D6AADDA0D}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{E3DA8657-0750-41CB-9407-7199AC619A39}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{82A0A718-9198-4F21-85ED-6922DA889096}" name="合計" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{82A0A718-9198-4F21-85ED-6922DA889096}" name="合計" dataDxfId="13">
       <calculatedColumnFormula>LEN(テーブル246[[#This Row],[プロパティ名]])+IF(テーブル246[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246[[#This Row],[文字列型最大文字数]])+IF(テーブル246[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246[[#This Row],[Boolean]]+IF(テーブル246[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -865,10 +865,10 @@
     <tableColumn id="9" xr3:uid="{82CD18C9-03DC-4325-AD3A-BAA0C7CDA90F}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{D516F8A8-5407-4B27-A096-A6188BD73DA3}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{D05DCDC1-BABA-450D-B1C3-655845B415FD}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{191F6D1A-6AB5-4ADD-920B-6E65344D28DF}" name="List または Map の最大サイズ" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{191F6D1A-6AB5-4ADD-920B-6E65344D28DF}" name="List または Map の最大サイズ" dataDxfId="12">
       <calculatedColumnFormula>I1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{49B057F5-0374-440F-B73F-127E889278E2}" name="合計" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{49B057F5-0374-440F-B73F-127E889278E2}" name="合計" dataDxfId="11">
       <calculatedColumnFormula>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -888,7 +888,7 @@
     <tableColumn id="5" xr3:uid="{04A91074-D02A-4F95-AF9C-DD1259286CC2}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{61543F29-3FD7-4D97-A6D1-E3335673304D}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{1B4D1F4A-3B61-40A4-BD03-850518155148}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{05B336FF-AC7A-4DEE-A029-6E6E34A0F099}" name="合計" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{05B336FF-AC7A-4DEE-A029-6E6E34A0F099}" name="合計" dataDxfId="10">
       <calculatedColumnFormula>LEN(テーブル2468[[#This Row],[プロパティ名]])+IF(テーブル2468[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2468[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2468[[#This Row],[文字列型最大文字数]])+IF(テーブル2468[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2468[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2468[[#This Row],[Boolean]]+IF(テーブル2468[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2468[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -908,7 +908,7 @@
     <tableColumn id="5" xr3:uid="{BC3072FE-09F2-4122-9642-AC9E1A0203EF}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{5EEE286C-AD87-4DE4-A1CA-39EA4970E93E}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{A137E61B-2E96-4928-9775-1DEEFCBB2F78}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{1F1E9336-9EDB-4DAB-B55A-1A432EE373E8}" name="合計" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{1F1E9336-9EDB-4DAB-B55A-1A432EE373E8}" name="合計" dataDxfId="9">
       <calculatedColumnFormula>LEN(テーブル2469[[#This Row],[プロパティ名]])+IF(テーブル2469[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2469[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2469[[#This Row],[文字列型最大文字数]])+IF(テーブル2469[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2469[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2469[[#This Row],[Boolean]]+IF(テーブル2469[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2469[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,14 +925,14 @@
     <tableColumn id="3" xr3:uid="{53B48B96-B453-4E44-94E3-86F7767C887F}" name="プロパティ名"/>
     <tableColumn id="4" xr3:uid="{F25FB065-CB98-470E-8BD9-BBB351B614A6}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{4E486A6E-DACD-4515-A57B-F615F9C08DA5}" name="日本語あり"/>
-    <tableColumn id="5" xr3:uid="{D8B0654C-7BF8-4F6E-9C4F-2593EC27967B}" name="数値型最大桁数" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{D8B0654C-7BF8-4F6E-9C4F-2593EC27967B}" name="数値型最大桁数" dataDxfId="8">
       <calculatedColumnFormula>LEN(TEXT(I15,"########"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{135896B6-FD48-4B1F-B1AC-1ECA9288954C}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{A5BD802C-F8FF-4B62-9B3A-FB7CDEC96011}" name="List または Map の最大サイズ" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{A5BD802C-F8FF-4B62-9B3A-FB7CDEC96011}" name="List または Map の最大サイズ" dataDxfId="7">
       <calculatedColumnFormula>I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9D3A7F76-FE21-4E75-A175-D3C2A06D54D5}" name="合計" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{9D3A7F76-FE21-4E75-A175-D3C2A06D54D5}" name="合計" dataDxfId="6">
       <calculatedColumnFormula>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -952,7 +952,7 @@
     <tableColumn id="5" xr3:uid="{E9D7055B-C61D-4D03-96DC-6A1494E965A5}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{F35A32F2-4C9B-4146-8F1E-6812CA8F8F72}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{50CB68E4-D51B-45A7-A523-A542D6D9F740}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="5">
       <calculatedColumnFormula>LEN(テーブル2411[[#This Row],[プロパティ名]])+IF(テーブル2411[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2411[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2411[[#This Row],[文字列型最大文字数]])+IF(テーブル2411[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2411[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2411[[#This Row],[Boolean]]+IF(テーブル2411[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2411[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -971,10 +971,10 @@
     <tableColumn id="9" xr3:uid="{88A17F6E-A8F6-4134-99C9-A768875E1F7B}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{3455134B-FCFC-4655-BFF5-4CD4E2962B07}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{213CE3F4-6E06-4942-B653-ACC7846A8452}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="4">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="3">
       <calculatedColumnFormula>LEN(テーブル24512[[#This Row],[プロパティ名]])+IF(テーブル24512[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24512[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24512[[#This Row],[文字列型最大文字数]])+IF(テーブル24512[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24512[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24512[[#This Row],[Boolean]]+IF(テーブル24512[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24512[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -994,7 +994,7 @@
     <tableColumn id="5" xr3:uid="{F224611B-0776-4E1D-B937-42C78D4C14EE}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{D99ACD5E-BF29-4F6C-9083-D7FBFEB08D77}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{5FF3387D-40C5-429B-AF8C-6C6DD34F4EAF}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="2">
       <calculatedColumnFormula>LEN(テーブル24[[#This Row],[プロパティ名]])+IF(テーブル24[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24[[#This Row],[文字列型最大文字数]])+IF(テーブル24[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24[[#This Row],[Boolean]]+IF(テーブル24[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1013,10 +1013,10 @@
     <tableColumn id="9" xr3:uid="{933B59F8-A8D9-40FD-A05F-9F8FB846E905}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{BAD78963-027E-42E2-9BFF-BC265BDE51CD}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{838DB655-BC1A-45C6-AE9A-BADBFE4E51DA}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="1">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="0">
       <calculatedColumnFormula>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1536,9 +1536,12 @@
       <c r="D15">
         <v>64</v>
       </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
       <c r="I15">
         <f>LEN(テーブル2469[[#This Row],[プロパティ名]])+IF(テーブル2469[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2469[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2469[[#This Row],[文字列型最大文字数]])+IF(テーブル2469[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2469[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2469[[#This Row],[Boolean]]+IF(テーブル2469[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2469[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>65</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1555,7 +1558,7 @@
       </c>
       <c r="I18">
         <f>I17*SUM(テーブル2469[合計])</f>
-        <v>19400</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1687,12 +1690,14 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <f>3+ID_SIZE</f>
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
       </c>
       <c r="I30">
         <f>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>28</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1703,12 +1708,14 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <f>ID_SIZE</f>
-        <v>24</v>
+        <v>1024</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
       </c>
       <c r="I31">
         <f>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>25</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -1736,11 +1743,11 @@
       </c>
       <c r="H33">
         <f>I18</f>
-        <v>19400</v>
+        <v>109000</v>
       </c>
       <c r="I33">
         <f>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>19404</v>
+        <v>109004</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -2030,7 +2037,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E15 E30:E36 E3:E5 G36 E41:E50 E22:E23" xr:uid="{1FD00C20-355E-4CE3-983F-55A547226AF4}">
       <formula1>"○"</formula1>
     </dataValidation>
@@ -2039,12 +2046,13 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2221,7 +2229,7 @@
         <v>69</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H10:H12" si="0">I6</f>
+        <f t="shared" ref="H12" si="0">I6</f>
         <v>384800</v>
       </c>
       <c r="I12">
@@ -2282,7 +2290,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265242A7-AA63-4FDD-A187-7EA10E22D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1EF2E-D7A5-431A-ADE0-3CE337AE6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
   <si>
     <t>ID のバイト数</t>
     <rPh sb="7" eb="8">
@@ -686,6 +686,10 @@
   </si>
   <si>
     <t>"p" | "j"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01234</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -761,7 +765,10 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -829,12 +836,12 @@
     <tableColumn id="3" xr3:uid="{FE06A132-179F-47D1-8843-BF87286558FB}" name="プロパティ名"/>
     <tableColumn id="4" xr3:uid="{518FA962-04C0-4130-A16E-409240DD9A7E}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{54CD469D-6D7F-4844-92F4-4B58B1B7F583}" name="日本語あり"/>
-    <tableColumn id="5" xr3:uid="{0617EF1E-4A7D-4E10-B262-AD408EBC0600}" name="数値型最大桁数" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{0617EF1E-4A7D-4E10-B262-AD408EBC0600}" name="数値型最大桁数" dataDxfId="15">
       <calculatedColumnFormula>TIME_LINGTH</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{916681C1-E818-4539-9777-FC0D6AADDA0D}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{E3DA8657-0750-41CB-9407-7199AC619A39}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{82A0A718-9198-4F21-85ED-6922DA889096}" name="合計" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{82A0A718-9198-4F21-85ED-6922DA889096}" name="合計" dataDxfId="14">
       <calculatedColumnFormula>LEN(テーブル246[[#This Row],[プロパティ名]])+IF(テーブル246[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246[[#This Row],[文字列型最大文字数]])+IF(テーブル246[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246[[#This Row],[Boolean]]+IF(テーブル246[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -865,10 +872,10 @@
     <tableColumn id="9" xr3:uid="{82CD18C9-03DC-4325-AD3A-BAA0C7CDA90F}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{D516F8A8-5407-4B27-A096-A6188BD73DA3}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{D05DCDC1-BABA-450D-B1C3-655845B415FD}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{191F6D1A-6AB5-4ADD-920B-6E65344D28DF}" name="List または Map の最大サイズ" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{191F6D1A-6AB5-4ADD-920B-6E65344D28DF}" name="List または Map の最大サイズ" dataDxfId="13">
       <calculatedColumnFormula>I1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{49B057F5-0374-440F-B73F-127E889278E2}" name="合計" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{49B057F5-0374-440F-B73F-127E889278E2}" name="合計" dataDxfId="12">
       <calculatedColumnFormula>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -888,7 +895,7 @@
     <tableColumn id="5" xr3:uid="{04A91074-D02A-4F95-AF9C-DD1259286CC2}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{61543F29-3FD7-4D97-A6D1-E3335673304D}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{1B4D1F4A-3B61-40A4-BD03-850518155148}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{05B336FF-AC7A-4DEE-A029-6E6E34A0F099}" name="合計" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{05B336FF-AC7A-4DEE-A029-6E6E34A0F099}" name="合計" dataDxfId="11">
       <calculatedColumnFormula>LEN(テーブル2468[[#This Row],[プロパティ名]])+IF(テーブル2468[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2468[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2468[[#This Row],[文字列型最大文字数]])+IF(テーブル2468[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2468[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2468[[#This Row],[Boolean]]+IF(テーブル2468[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2468[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -908,7 +915,7 @@
     <tableColumn id="5" xr3:uid="{BC3072FE-09F2-4122-9642-AC9E1A0203EF}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{5EEE286C-AD87-4DE4-A1CA-39EA4970E93E}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{A137E61B-2E96-4928-9775-1DEEFCBB2F78}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{1F1E9336-9EDB-4DAB-B55A-1A432EE373E8}" name="合計" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{1F1E9336-9EDB-4DAB-B55A-1A432EE373E8}" name="合計" dataDxfId="10">
       <calculatedColumnFormula>LEN(テーブル2469[[#This Row],[プロパティ名]])+IF(テーブル2469[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2469[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2469[[#This Row],[文字列型最大文字数]])+IF(テーブル2469[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2469[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2469[[#This Row],[Boolean]]+IF(テーブル2469[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2469[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,14 +932,14 @@
     <tableColumn id="3" xr3:uid="{53B48B96-B453-4E44-94E3-86F7767C887F}" name="プロパティ名"/>
     <tableColumn id="4" xr3:uid="{F25FB065-CB98-470E-8BD9-BBB351B614A6}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{4E486A6E-DACD-4515-A57B-F615F9C08DA5}" name="日本語あり"/>
-    <tableColumn id="5" xr3:uid="{D8B0654C-7BF8-4F6E-9C4F-2593EC27967B}" name="数値型最大桁数" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{D8B0654C-7BF8-4F6E-9C4F-2593EC27967B}" name="数値型最大桁数" dataDxfId="9">
       <calculatedColumnFormula>LEN(TEXT(I15,"########"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{135896B6-FD48-4B1F-B1AC-1ECA9288954C}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{A5BD802C-F8FF-4B62-9B3A-FB7CDEC96011}" name="List または Map の最大サイズ" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{A5BD802C-F8FF-4B62-9B3A-FB7CDEC96011}" name="List または Map の最大サイズ" dataDxfId="8">
       <calculatedColumnFormula>I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9D3A7F76-FE21-4E75-A175-D3C2A06D54D5}" name="合計" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{9D3A7F76-FE21-4E75-A175-D3C2A06D54D5}" name="合計" dataDxfId="7">
       <calculatedColumnFormula>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -946,13 +953,13 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{783BFFD6-F277-415A-BB35-5F3389BCB331}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{FD42ECF6-179C-494C-A89C-96E824146D9C}" name="説明"/>
-    <tableColumn id="3" xr3:uid="{E377207C-63B4-43EF-8004-D02ED7AAA94B}" name="プロパティ名"/>
+    <tableColumn id="3" xr3:uid="{E377207C-63B4-43EF-8004-D02ED7AAA94B}" name="プロパティ名" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{2137E89B-4E7A-4A6C-8719-D8F54E90B6EF}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{7A8B5CEF-3E1C-4211-80F5-45173A0A8E38}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{E9D7055B-C61D-4D03-96DC-6A1494E965A5}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{F35A32F2-4C9B-4146-8F1E-6812CA8F8F72}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{50CB68E4-D51B-45A7-A523-A542D6D9F740}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="6">
       <calculatedColumnFormula>LEN(テーブル2411[[#This Row],[プロパティ名]])+IF(テーブル2411[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2411[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2411[[#This Row],[文字列型最大文字数]])+IF(テーブル2411[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2411[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2411[[#This Row],[Boolean]]+IF(テーブル2411[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2411[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -971,10 +978,10 @@
     <tableColumn id="9" xr3:uid="{88A17F6E-A8F6-4134-99C9-A768875E1F7B}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{3455134B-FCFC-4655-BFF5-4CD4E2962B07}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{213CE3F4-6E06-4942-B653-ACC7846A8452}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="5">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="4">
       <calculatedColumnFormula>LEN(テーブル24512[[#This Row],[プロパティ名]])+IF(テーブル24512[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24512[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24512[[#This Row],[文字列型最大文字数]])+IF(テーブル24512[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24512[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24512[[#This Row],[Boolean]]+IF(テーブル24512[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24512[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -994,7 +1001,7 @@
     <tableColumn id="5" xr3:uid="{F224611B-0776-4E1D-B937-42C78D4C14EE}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{D99ACD5E-BF29-4F6C-9083-D7FBFEB08D77}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{5FF3387D-40C5-429B-AF8C-6C6DD34F4EAF}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="3">
       <calculatedColumnFormula>LEN(テーブル24[[#This Row],[プロパティ名]])+IF(テーブル24[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24[[#This Row],[文字列型最大文字数]])+IF(テーブル24[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24[[#This Row],[Boolean]]+IF(テーブル24[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1013,10 +1020,10 @@
     <tableColumn id="9" xr3:uid="{933B59F8-A8D9-40FD-A05F-9F8FB846E905}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{BAD78963-027E-42E2-9BFF-BC265BDE51CD}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{838DB655-BC1A-45C6-AE9A-BADBFE4E51DA}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="2">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="1">
       <calculatedColumnFormula>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1323,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9D8F0-79ED-48F9-8993-81BE3354FE90}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1636,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="I25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1645,7 +1652,7 @@
       </c>
       <c r="I26">
         <f>I25*SUM(テーブル2468[合計])</f>
-        <v>90000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1775,11 +1782,11 @@
       </c>
       <c r="H35">
         <f t="shared" ref="H35" si="0">I26</f>
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="I35" s="3">
         <f>LEN(テーブル246810[[#This Row],[プロパティ名]])+IF(テーブル246810[[#This Row],[日本語あり]]&lt;&gt;"",テーブル246810[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル246810[[#This Row],[文字列型最大文字数]])+IF(テーブル246810[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル246810[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル246810[[#This Row],[Boolean]]+IF(テーブル246810[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル246810[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>90004</v>
+        <v>180004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -1788,7 +1795,7 @@
       </c>
       <c r="I37">
         <f>I35</f>
-        <v>90004</v>
+        <v>180004</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -1998,11 +2005,11 @@
       </c>
       <c r="H50">
         <f>I37</f>
-        <v>90004</v>
+        <v>180004</v>
       </c>
       <c r="I50">
         <f>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>90008</v>
+        <v>180008</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
@@ -2011,7 +2018,7 @@
       </c>
       <c r="I52">
         <f>SUM(テーブル2457[合計])</f>
-        <v>145007</v>
+        <v>235007</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
@@ -2020,7 +2027,7 @@
       </c>
       <c r="I53">
         <f>I52/1024</f>
-        <v>141.6083984375</v>
+        <v>229.4990234375</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
@@ -2032,7 +2039,7 @@
       </c>
       <c r="I54" s="2">
         <f>I52/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.35402099609374998</v>
+        <v>0.57374755859375004</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2069,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2118,8 +2125,8 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3">
-        <v>1234</v>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D3">
         <v>240</v>
@@ -2129,7 +2136,7 @@
       </c>
       <c r="I3">
         <f>LEN(テーブル2411[[#This Row],[プロパティ名]])+IF(テーブル2411[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2411[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2411[[#This Row],[文字列型最大文字数]])+IF(テーブル2411[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2411[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2411[[#This Row],[Boolean]]+IF(テーブル2411[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2411[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -2146,7 +2153,7 @@
       </c>
       <c r="I6">
         <f>I5*SUM(テーブル2411[合計])</f>
-        <v>384800</v>
+        <v>385000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -2230,11 +2237,11 @@
       </c>
       <c r="H12">
         <f t="shared" ref="H12" si="0">I6</f>
-        <v>384800</v>
+        <v>385000</v>
       </c>
       <c r="I12">
         <f>LEN(テーブル24512[[#This Row],[プロパティ名]])+IF(テーブル24512[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24512[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24512[[#This Row],[文字列型最大文字数]])+IF(テーブル24512[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24512[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24512[[#This Row],[Boolean]]+IF(テーブル24512[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24512[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>384804</v>
+        <v>385004</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -2243,7 +2250,7 @@
       </c>
       <c r="I14">
         <f>SUM(テーブル24512[合計])</f>
-        <v>384863</v>
+        <v>385063</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -2252,7 +2259,7 @@
       </c>
       <c r="I15">
         <f>I14/1024</f>
-        <v>375.8427734375</v>
+        <v>376.0380859375</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
@@ -2264,7 +2271,7 @@
       </c>
       <c r="I16" s="2">
         <f>I14/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.93960693359375003</v>
+        <v>0.94009521484375003</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2297,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1EF2E-D7A5-431A-ADE0-3CE337AE6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D63048E-97A0-4A9A-842A-3F9CC15B9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="楽譜のデータ(v1)" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
   <si>
     <t>ID のバイト数</t>
     <rPh sb="7" eb="8">
@@ -504,20 +504,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アノテーションのID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アノテーションのIDの文字列の長さ</t>
-    <rPh sb="11" eb="14">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>数字</t>
     <rPh sb="0" eb="2">
       <t>スウジ</t>
@@ -690,6 +676,63 @@
   </si>
   <si>
     <t>01234</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーションの文字列の長さ</t>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部のアノテーションのID</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションタイムアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更をする前に Unix ミリ秒を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更をする前に設定する Unix ミリ秒</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -767,7 +810,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -785,7 +828,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -862,8 +905,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0B33CF75-DF89-48C6-A00C-BAEB5D366304}" name="テーブル2457" displayName="テーブル2457" ref="A40:I50" totalsRowShown="0">
-  <autoFilter ref="A40:I50" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0B33CF75-DF89-48C6-A00C-BAEB5D366304}" name="テーブル2457" displayName="テーブル2457" ref="A40:I51" totalsRowShown="0">
+  <autoFilter ref="A40:I51" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0493C73D-BADD-4764-B993-15F3945F603D}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{E27E9882-CDFE-49B0-8D66-10947B150A30}" name="説明"/>
@@ -953,13 +996,13 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{783BFFD6-F277-415A-BB35-5F3389BCB331}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{FD42ECF6-179C-494C-A89C-96E824146D9C}" name="説明"/>
-    <tableColumn id="3" xr3:uid="{E377207C-63B4-43EF-8004-D02ED7AAA94B}" name="プロパティ名" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E377207C-63B4-43EF-8004-D02ED7AAA94B}" name="プロパティ名" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{2137E89B-4E7A-4A6C-8719-D8F54E90B6EF}" name="文字列型最大文字数"/>
     <tableColumn id="9" xr3:uid="{7A8B5CEF-3E1C-4211-80F5-45173A0A8E38}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{E9D7055B-C61D-4D03-96DC-6A1494E965A5}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{F35A32F2-4C9B-4146-8F1E-6812CA8F8F72}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{50CB68E4-D51B-45A7-A523-A542D6D9F740}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{5F74A688-3738-4187-A387-DEEBE3580381}" name="合計" dataDxfId="5">
       <calculatedColumnFormula>LEN(テーブル2411[[#This Row],[プロパティ名]])+IF(テーブル2411[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2411[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2411[[#This Row],[文字列型最大文字数]])+IF(テーブル2411[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2411[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2411[[#This Row],[Boolean]]+IF(テーブル2411[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2411[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -978,10 +1021,10 @@
     <tableColumn id="9" xr3:uid="{88A17F6E-A8F6-4134-99C9-A768875E1F7B}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{3455134B-FCFC-4655-BFF5-4CD4E2962B07}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{213CE3F4-6E06-4942-B653-ACC7846A8452}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{3D6BA2A9-9AFD-47CC-A3BB-53A9DF3DC2A5}" name="List または Map の最大サイズ" dataDxfId="4">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{D01C638E-5FD9-4DFE-825D-BF0F8DCF311E}" name="合計" dataDxfId="3">
       <calculatedColumnFormula>LEN(テーブル24512[[#This Row],[プロパティ名]])+IF(テーブル24512[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24512[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24512[[#This Row],[文字列型最大文字数]])+IF(テーブル24512[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24512[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24512[[#This Row],[Boolean]]+IF(テーブル24512[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24512[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1001,7 +1044,7 @@
     <tableColumn id="5" xr3:uid="{F224611B-0776-4E1D-B937-42C78D4C14EE}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{D99ACD5E-BF29-4F6C-9083-D7FBFEB08D77}" name="Boolean"/>
     <tableColumn id="8" xr3:uid="{5FF3387D-40C5-429B-AF8C-6C6DD34F4EAF}" name="List または Map の最大サイズ"/>
-    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{93973F2C-CE5C-479D-A7B7-29E5A8BEA41D}" name="合計" dataDxfId="2">
       <calculatedColumnFormula>LEN(テーブル24[[#This Row],[プロパティ名]])+IF(テーブル24[[#This Row],[日本語あり]]&lt;&gt;"",テーブル24[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル24[[#This Row],[文字列型最大文字数]])+IF(テーブル24[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル24[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル24[[#This Row],[Boolean]]+IF(テーブル24[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル24[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1010,8 +1053,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}" name="テーブル245" displayName="テーブル245" ref="A12:I19" totalsRowShown="0">
-  <autoFilter ref="A12:I19" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}" name="テーブル245" displayName="テーブル245" ref="A12:I20" totalsRowShown="0">
+  <autoFilter ref="A12:I20" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E726CD5F-F0FC-49C3-B0EC-2C04546C3B5E}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{14E24AF7-4022-4C91-8C17-24ECB36A3E8C}" name="説明"/>
@@ -1020,10 +1063,10 @@
     <tableColumn id="9" xr3:uid="{933B59F8-A8D9-40FD-A05F-9F8FB846E905}" name="日本語あり"/>
     <tableColumn id="5" xr3:uid="{BAD78963-027E-42E2-9BFF-BC265BDE51CD}" name="数値型最大桁数"/>
     <tableColumn id="6" xr3:uid="{838DB655-BC1A-45C6-AE9A-BADBFE4E51DA}" name="Boolean"/>
-    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{BB6A30CF-3B88-4146-8E7E-0707BDC17E80}" name="List または Map の最大サイズ" dataDxfId="1">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{384F3F43-DCA5-4227-B317-AC93BAC211EA}" name="合計" dataDxfId="0">
       <calculatedColumnFormula>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1328,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9D8F0-79ED-48F9-8993-81BE3354FE90}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1382,7 +1425,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1398,7 +1441,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -1432,7 +1475,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -1483,10 +1526,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1501,7 +1544,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1520,7 +1563,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -1535,7 +1578,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -1553,7 +1596,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <v>200</v>
@@ -1604,10 +1647,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1622,10 +1665,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -1640,7 +1683,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I25">
         <v>20000</v>
@@ -1837,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1875,7 +1918,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -1895,7 +1938,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -1915,7 +1958,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -1936,13 +1979,14 @@
       <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="F46">
-        <v>10</v>
+      <c r="D46">
+        <f>ID_LENGTH</f>
+        <v>24</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <f>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -2012,43 +2056,63 @@
         <v>180008</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52">
-        <f>SUM(テーブル2457[合計])</f>
-        <v>235007</v>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51">
+        <f>TIME_LENGTH</f>
+        <v>16</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <f>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H53" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I53">
-        <f>I52/1024</f>
-        <v>229.4990234375</v>
-      </c>
-      <c r="J53" t="s">
-        <v>46</v>
+        <f>SUM(テーブル2457[合計])</f>
+        <v>235035</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <f>I53/1024</f>
+        <v>229.5263671875</v>
+      </c>
+      <c r="J54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H55" t="s">
         <v>51</v>
       </c>
-      <c r="I54" s="2">
-        <f>I52/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.57374755859375004</v>
+      <c r="I55" s="2">
+        <f>I53/DYNAMODB_ITEM_LIMIT_SIZE</f>
+        <v>0.57381591796874998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E15 E30:E36 E3:E5 G36 E41:E50 E22:E23" xr:uid="{1FD00C20-355E-4CE3-983F-55A547226AF4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E15 E30:E36 E3:E5 G36 E41:E51 E22:E23" xr:uid="{1FD00C20-355E-4CE3-983F-55A547226AF4}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:G35 G12:G15 G3:G5 G41:G50 G22:G23" xr:uid="{BBE278FD-1249-49A3-98FD-DB6A30125E35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:G35 G12:G15 G3:G5 G41:G51 G22:G23" xr:uid="{BBE278FD-1249-49A3-98FD-DB6A30125E35}">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2123,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D3">
         <v>240</v>
@@ -2195,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -2214,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2230,7 +2294,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -2294,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4E860F-DF03-4EA9-920B-EFEB2C5A74AA}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2367,7 +2431,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -2385,7 +2449,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2475,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2515,13 +2579,14 @@
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="F15">
-        <v>10</v>
+      <c r="D15">
+        <f>ID_LENGTH</f>
+        <v>24</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <f>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -2595,43 +2660,66 @@
         <v>274004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <f>SUM(テーブル245[合計])</f>
-        <v>274079</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <f>TIME_LENGTH</f>
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <f>I21/1024</f>
-        <v>267.6552734375</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
+        <f>SUM(テーブル245[合計])</f>
+        <v>274110</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <f>I22/1024</f>
+        <v>267.685546875</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="2">
-        <f>I21/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.66913818359374999</v>
+      <c r="I24" s="2">
+        <f>I22/DYNAMODB_ITEM_LIMIT_SIZE</f>
+        <v>0.66921386718749998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19 E3:E6" xr:uid="{75A0D162-3C33-491D-8A24-756F3EAB6BC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E20 E3:E6" xr:uid="{75A0D162-3C33-491D-8A24-756F3EAB6BC8}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G13:G19" xr:uid="{37822C21-D597-4D8D-9343-8F4AACDB2A07}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G13:G20" xr:uid="{37822C21-D597-4D8D-9343-8F4AACDB2A07}">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2693,18 +2781,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>24</v>

--- a/dynamodb/calc_size.xlsx
+++ b/dynamodb/calc_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ura-kata\architectural\dynamodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D63048E-97A0-4A9A-842A-3F9CC15B9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7C3FD-6B80-4CC2-8E30-2A36C10737DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{551617D0-CE19-4CB1-8A11-F1C082ED7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="楽譜のデータ(v1)" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
   <si>
     <t>ID のバイト数</t>
     <rPh sb="7" eb="8">
@@ -716,10 +716,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更をする前に設定する Unix ミリ秒</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -733,6 +729,37 @@
     <rPh sb="19" eb="20">
       <t>ビョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションスタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更処理の開始時間 Unix ミリ秒</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xs</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -905,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0B33CF75-DF89-48C6-A00C-BAEB5D366304}" name="テーブル2457" displayName="テーブル2457" ref="A40:I51" totalsRowShown="0">
-  <autoFilter ref="A40:I51" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0B33CF75-DF89-48C6-A00C-BAEB5D366304}" name="テーブル2457" displayName="テーブル2457" ref="A40:I52" totalsRowShown="0">
+  <autoFilter ref="A40:I52" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0493C73D-BADD-4764-B993-15F3945F603D}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{E27E9882-CDFE-49B0-8D66-10947B150A30}" name="説明"/>
@@ -1053,8 +1080,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}" name="テーブル245" displayName="テーブル245" ref="A12:I20" totalsRowShown="0">
-  <autoFilter ref="A12:I20" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}" name="テーブル245" displayName="テーブル245" ref="A12:I21" totalsRowShown="0">
+  <autoFilter ref="A12:I21" xr:uid="{73A84357-EC44-415B-BD13-8CADA49AF809}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E726CD5F-F0FC-49C3-B0EC-2C04546C3B5E}" name="プロパティ"/>
     <tableColumn id="2" xr3:uid="{14E24AF7-4022-4C91-8C17-24ECB36A3E8C}" name="説明"/>
@@ -1371,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9D8F0-79ED-48F9-8993-81BE3354FE90}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2064,7 +2091,7 @@
         <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F51">
         <f>TIME_LENGTH</f>
@@ -2073,46 +2100,66 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3">
         <f>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53">
-        <f>SUM(テーブル2457[合計])</f>
-        <v>235035</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52">
+        <f>TIME_LENGTH</f>
+        <v>16</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <f>LEN(テーブル2457[[#This Row],[プロパティ名]])+IF(テーブル2457[[#This Row],[日本語あり]]&lt;&gt;"",テーブル2457[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル2457[[#This Row],[文字列型最大文字数]])+IF(テーブル2457[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル2457[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル2457[[#This Row],[Boolean]]+IF(テーブル2457[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル2457[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H54" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I54">
-        <f>I53/1024</f>
-        <v>229.5263671875</v>
-      </c>
-      <c r="J54" t="s">
-        <v>46</v>
+        <f>SUM(テーブル2457[合計])</f>
+        <v>235047</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <f>I54/1024</f>
+        <v>229.5380859375</v>
+      </c>
+      <c r="J55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H56" t="s">
         <v>51</v>
       </c>
-      <c r="I55" s="2">
-        <f>I53/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.57381591796874998</v>
+      <c r="I56" s="2">
+        <f>I54/DYNAMODB_ITEM_LIMIT_SIZE</f>
+        <v>0.57384521484374995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E15 E30:E36 E3:E5 G36 E41:E51 E22:E23" xr:uid="{1FD00C20-355E-4CE3-983F-55A547226AF4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E15 E30:E36 E3:E5 G36 E41:E52 E22:E23" xr:uid="{1FD00C20-355E-4CE3-983F-55A547226AF4}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:G35 G12:G15 G3:G5 G41:G51 G22:G23" xr:uid="{BBE278FD-1249-49A3-98FD-DB6A30125E35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:G35 G12:G15 G3:G5 G41:G52 G22:G23" xr:uid="{BBE278FD-1249-49A3-98FD-DB6A30125E35}">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2358,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4E860F-DF03-4EA9-920B-EFEB2C5A74AA}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2665,68 +2712,86 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F20">
         <f>TIME_LENGTH</f>
         <v>16</v>
       </c>
-      <c r="H20" s="3">
-        <f>I11</f>
-        <v>0</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
         <f>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <f>SUM(テーブル245[合計])</f>
-        <v>274110</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21">
+        <f>TIME_LENGTH</f>
+        <v>16</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <f>LEN(テーブル245[[#This Row],[プロパティ名]])+IF(テーブル245[[#This Row],[日本語あり]]&lt;&gt;"",テーブル245[[#This Row],[文字列型最大文字数]]*CHAR_SIZE,テーブル245[[#This Row],[文字列型最大文字数]])+IF(テーブル245[[#This Row],[数値型最大桁数]]&lt;&gt;"",QUOTIENT(テーブル245[[#This Row],[数値型最大桁数]]+1,2)+1,0)+テーブル245[[#This Row],[Boolean]]+IF(テーブル245[[#This Row],[List または Map の最大サイズ]]&lt;&gt;"",テーブル245[[#This Row],[List または Map の最大サイズ]]+3,0)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <f>I22/1024</f>
-        <v>267.685546875</v>
-      </c>
-      <c r="J23" t="s">
-        <v>46</v>
+        <f>SUM(テーブル245[合計])</f>
+        <v>274119</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <f>I23/1024</f>
+        <v>267.6943359375</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="2">
-        <f>I22/DYNAMODB_ITEM_LIMIT_SIZE</f>
-        <v>0.66921386718749998</v>
+      <c r="I25" s="2">
+        <f>I23/DYNAMODB_ITEM_LIMIT_SIZE</f>
+        <v>0.66923583984375001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E20 E3:E6" xr:uid="{75A0D162-3C33-491D-8A24-756F3EAB6BC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E21 E3:E6" xr:uid="{75A0D162-3C33-491D-8A24-756F3EAB6BC8}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G13:G20" xr:uid="{37822C21-D597-4D8D-9343-8F4AACDB2A07}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6 G13:G21" xr:uid="{37822C21-D597-4D8D-9343-8F4AACDB2A07}">
       <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
